--- a/TweetsColetadosPolitica.xlsx
+++ b/TweetsColetadosPolitica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Sentimento</t>
+          <t>Sentimento1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sentimento2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SentimentoFinal</t>
         </is>
       </c>
     </row>
@@ -456,15 +466,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sat Jul 24 16:10:38 +0000 2021</t>
+          <t>Sat Jul 24 17:30:14 +0000 2021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>#Brasil #Política Essa é a "nova política". Ciro Nogueira e Flávia Arruda no Ministério. A nova política de 2018 é uma farsa. Mudam as pessoas, mas a saúde não melhora, a educação não melhora.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Randolfe a Bolsonaro após ser chamado de saltitante: "Só não me chame de corrupto, miliciano e superfaturador de vacina"
+https://t.co/7YN87t52m1
+#politica #noticias #jornalismo https://t.co/GpbjmIg4TV</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -472,16 +498,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sat Jul 24 16:10:00 +0000 2021</t>
+          <t>Sat Jul 24 17:23:30 +0000 2021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Clique no link para responder a pesquisa https://t.co/r1NzFS0yBF
-#deputado #GestãoPública #vereador #eleições #prefeitura #Prefeito #camaramunicipal #camaradosdeputados #poderpúblico #política #político #pesquisaeleitoral #eleições #franquias #FundoEleitoral https://t.co/PGCfVBaNLS</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Manifestantes contra medidas para conter Covid entram em conflito com a polícia em Paris 
+#política #coronavírus #saúde #frança 
+https://t.co/4mt6mBNvdu</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -489,15 +530,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sat Jul 24 15:50:33 +0000 2021</t>
+          <t>Sat Jul 24 17:21:40 +0000 2021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mais uma manifestação contra Bolsonaro é realizada no Centro do Rio - #política #manifestação #Bolsonaro  https://t.co/yGvDtPtVap</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>PMDF evita possível tragédia familiar apreendendo arma de fogo em Ceilândia 
+https://t.co/aSFK2X9i4a
+#blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -505,16 +562,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sat Jul 24 15:29:03 +0000 2021</t>
+          <t>Sat Jul 24 17:21:39 +0000 2021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pela quarta vez, os manifestantes voltam a promover atos contra o Bolsonaro em todo o país
- #política #sergipe https://t.co/XIwvFaukNU</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Rio entrega hoje 197 mil doses da vacina Astrazeneca aos 92 municípios 
+https://t.co/RLQPFcvsma
+#blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -522,15 +594,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sat Jul 24 15:00:13 +0000 2021</t>
+          <t>Sat Jul 24 17:21:39 +0000 2021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mario Frias diz que Museu da Língua Portuguesa vandaliza cultura ao usar todes https://t.co/XhO3cFvird #politica</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>TJ-SP suspende vacinação prioritária de população carcerária 
+https://t.co/WJ8d8ottJS
+#blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -538,15 +626,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sat Jul 24 14:42:57 +0000 2021</t>
+          <t>Sat Jul 24 17:16:20 +0000 2021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>APLB DIZ QUE PROFESSORES DO ESTADO NÃO VOLTAM DIA 26; SEC MANTÉM DATA #Política https://t.co/bwsFEvV9J7</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>BRAVOOO ! 💯🏆👏🏽👏🏽👏🏽
+#blogauroradecinemaaplaude @randolferodrigues #senador #cpicovid19 #política #macron #parlamentar #bravophotos #merece #france #senadofederal @emmanuelmacron em France. Paris https://t.co/8tZMbFbvg1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -554,15 +657,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sat Jul 24 14:37:22 +0000 2021</t>
+          <t>Sat Jul 24 17:11:16 +0000 2021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Costa diz que Portugal vai contar com “o dobro” de fundos comunitários para inve https://t.co/rqGVS8JmB3 #AntónioCosta #Economia #Política</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>@dearthagan @HUNTRESS013 @missnancynunes @LatuffCartoons @AdvsPDemocracia Exatamente isso.
+Infelizmente, uma #parcela da #população desinteressada pela #Política, desinformada pela #midia e com #afinidades, colocou esse #sujeito e outros seus iguais, #cúmplices, no #Comando da #NaçãoBrasileira.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -570,15 +688,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sat Jul 24 14:32:58 +0000 2021</t>
+          <t>Sat Jul 24 17:03:38 +0000 2021</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Câmara de Ponte da Barca gasta 85 mil euros em chamadas para vencer concurso https://t.co/P1aULzxh09 #EmDestaque #Política #PonteDaBarca</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>#Brasil #Política O Brasil terá que ter algo surpreendente, porque se ficar nesse nível não dará coisa boa.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -586,16 +718,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sat Jul 24 14:28:59 +0000 2021</t>
+          <t>Sat Jul 24 17:00:16 +0000 2021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Manifestações do Fora Bolsonaro tomam as ruas do exterior e de cidades brasileiras – Rede Brasil Atual
- #política #sergipe https://t.co/cce5hHwweJ</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>Pela quarta vez, manifestantes voltam a promover atos contra Bolsonaro pelo país https://t.co/OqKpKNPg98 #F5Online #manchetes #política #bolsonaro #brasil #capitais #estados #impeachment #manifestações #presidente #protestos</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -603,808 +748,1940 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Sat Jul 24 16:59:33 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>#Brasil #Política #STF Abaixo a ditadura do Alexandre imundo dos imorais!! Liberdade para Daniel Silveira ou dissolução sumária do STF!! Quem age fora da CF para proteger um poder podre tem que ser tratado pior que lixo!!</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:56:26 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>#Brasil #Política #STF A resposta a ditadura do sem-vergonha Alexandre ocorrerá e a pele dos imundos arderá!! Não aceito Deputado preso por se expressar e @LulaOficial  poder dizer o que quiser. Isso tem que acabar!!</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:53:22 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>#Brasil #Política #STF Eu não aceito a lógica podre do STF e uma república ridícula assim tem que ser colocada abaixo!! Se o sem-vergonha Alexandre falasse em democracia na minha frente eu arrebentaria toda cara dele!!</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:51:53 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>#Brasil #Política #STF E o Lula defende a tirania o regime opressor escravocrata de Cuba e o Alexandre imundo dos imorais não diz nada em defesa da democracia não se indigna e o Daniel Silveira preso. A lógica seletiva a lógica criminosa do STF é intolerável!!</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:33:55 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Maior refinaria da Índia ainda aposta em combustíveis fósseis
+ #política #sergipe https://t.co/4XJipniv9O</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:22:09 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DEPUTADO ANTONIO HENRIQUE JÚNIOR PARTICIPA DE DEBATE SOBRE OS RUMOS DA FIOL
+https://t.co/mBmVCjbjxv
+#AntonioHenriqueJunior #FIOL #Politica</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:19:37 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Será que Luciano Hang DEVE ser candidato ao Senado ou continuar como ativista político? O que você acha: 
+#lucianohang #véiodahavan #senado #política
+#lucianohang #véiodahavan #senado https://t.co/r4AUbhJ0cv</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:10:38 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>#Brasil #Política Essa é a "nova política". Ciro Nogueira e Flávia Arruda no Ministério. A nova política de 2018 é uma farsa. Mudam as pessoas, mas a saúde não melhora, a educação não melhora.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:10:00 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Clique no link para responder a pesquisa https://t.co/r1NzFS0yBF
+#deputado #GestãoPública #vereador #eleições #prefeitura #Prefeito #camaramunicipal #camaradosdeputados #poderpúblico #política #político #pesquisaeleitoral #eleições #franquias #FundoEleitoral https://t.co/PGCfVBaNLS</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 15:50:33 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mais uma manifestação contra Bolsonaro é realizada no Centro do Rio - #política #manifestação #Bolsonaro  https://t.co/yGvDtPtVap</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 15:29:03 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Pela quarta vez, os manifestantes voltam a promover atos contra o Bolsonaro em todo o país
+ #política #sergipe https://t.co/XIwvFaukNU</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 15:00:13 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mario Frias diz que Museu da Língua Portuguesa vandaliza cultura ao usar todes https://t.co/XhO3cFvird #politica</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 14:42:57 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>APLB DIZ QUE PROFESSORES DO ESTADO NÃO VOLTAM DIA 26; SEC MANTÉM DATA #Política https://t.co/bwsFEvV9J7</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 14:37:22 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Costa diz que Portugal vai contar com “o dobro” de fundos comunitários para inve https://t.co/rqGVS8JmB3 #AntónioCosta #Economia #Política</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 14:32:58 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Câmara de Ponte da Barca gasta 85 mil euros em chamadas para vencer concurso https://t.co/P1aULzxh09 #EmDestaque #Política #PonteDaBarca</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 14:28:59 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Manifestações do Fora Bolsonaro tomam as ruas do exterior e de cidades brasileiras – Rede Brasil Atual
+ #política #sergipe https://t.co/cce5hHwweJ</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Sat Jul 24 14:21:17 +0000 2021</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>PMDF resgata saruê tirando soneca em cesto de roupa 
 https://t.co/XpzqHQCZoA
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:21:16 +0000 2021</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Justiça do Rio determina a liberação da Cidade do Samba 
 https://t.co/k3ez1KwVhQ
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:21:15 +0000 2021</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Morro da Cruz começa a receber infraestrutura 
 https://t.co/ts8zSvqTSj
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:20:08 +0000 2021</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>A POSIÇÃO DO SENADOR OTTO ALENCAR NA SUCESSÃO DO ESTADO EM 2022 (TF) #Política https://t.co/i7AQovveju</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:16:43 +0000 2021</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Ideologia política, partidarismo é o oposto de bom senso político! Temos a obrigação de votar, o mínimo a ser exigido é que desmontem as arenas do circo!!!!! A pauta de voto impresso dá coceira, das "brabas".... #VotoImpressoNAO #braganeto #Politica #Bolsonaro</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:10:39 +0000 2021</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>LULA  @LiloVLOG
  #politica #o #pol #tica #brasil #bolsonaro #covid #a #coronavirus #italia #n #noticias #economia #governo #argentina #eleicoes #news #liberalismo #politicaitaliana #elei #s #democracia #lavajato #m #politics #salvini #lega #es #liberal #bhfyp https://t.co/x8cdKhua2u</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:09:46 +0000 2021</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Estamos em um momento de pandemia, semana passada pessoas faziam fila em um bairro de Cuiabá para pegar ossinhos de carne gratuita. Isso é inacreditável. 
 #política #MatoGrosso</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:31:11 +0000 2021</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>‘Na China você desapareceria e não iriam encontrar seu corpo’, diz advogado de Bolsonaro a jornalista https://t.co/qBnKy7g5i5
 Juliana Dal Piva mostrou série de mensagens enviadas por Frederick Wassef após reportagens sobre rachadinhas
 #politica #noticias #jornalismo https://t.co/S4VTan3L2f</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:24:20 +0000 2021</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>@kellymatos #Brasil #Política #Saúde Muito sedo Kelly para fazer festa. Ainda não é o momento. Não se pode dar chance pra situação piorar. Pra se ter segurança é necessário vencer e não só vencer, é necessário consolidar a vitória em uma guerra.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:18:31 +0000 2021</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>“Enxergo pouco. Não vejo general ameaçar o STF e o Congresso. Não consigo enxergar nem genocídio!”. Um novo candidato ao STF se apresenta. Não é filme, mas o roteiro é de Julio Pompeu. https://t.co/GAWDeV1hoN
 #terapiapolitica #POLITICA #STF #bolsonarismo #crônica</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:53:46 +0000 2021</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>@Estadao Fazendo a conta: Se @LulaOficial é a "extrema-esquerda" e o Bozo a extrema-direita, então a terceira via é o C-E-N-T-R-Ã-O! Agora entendi a sua sistemática propaganda, Estadão.
 #Politica #jornaleco #povonasruas</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:36:17 +0000 2021</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Bolsominions não passarão! 
 #ForaBolsonaro #BolsonaroVaiCair #EsquerdaSegueEsquerda #esquerda #bolsominion #politica #burrice https://t.co/Y70UnkbYyr</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:31:08 +0000 2021</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Os funcionários que relutam em abrir mão do home office
 https://t.co/J7Q6y95NwC
 #politica #noticias #jornalismo https://t.co/Ev8CiLfcCI</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:27:05 +0000 2021</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>24 de julho, todos descendo às #ruas, gritando um basta às políticas de morte, #corrupção, ao deboche. 
 Nosso basta à boiada que passa arrasando #Amazônia e Cerrado, basta ao #desmatamento e à impunidade. Basta aos assaltos às terras indígenas.
 #24J #Politica #ForaBolsonaro</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:22:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>ONS prevê cenário energético "sensível" até novembro 
 https://t.co/B1B4HQ90Mp
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:03:35 +0000 2021</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>... Mamadou Ba é igual André Ventura. #politica</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:50:17 +0000 2021</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Não confunda!
 #marketingpolitico #mdb #ptb #pdt #pt #dem #psb #psdb #ptc #psc #pmn #cidadania #pv #avante #pp #novo #pcb #prtb #dc #rede #pode #psl #republicanos #psol #pl #psd #patriota #pros #solidariedade #politica https://t.co/bjdWLNySVY</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:47:35 +0000 2021</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Joice revela a site que tem "dois suspeitos" de suposto atentado #Joice #Politica 
 https://t.co/MEkr318bH6</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:31:44 +0000 2021</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>O falso Messias e seus riscos para a política nacional. Carlos Mota para o Jornal 140. #Brasil #Mito #política #RaoulGirardet #Salvador
 https://t.co/GSxJztM03f</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:31:06 +0000 2021</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>O sonho do carro esportivo: confira 10 opções do mercado brasileiro https://t.co/4ZEjxRltEx
 De Sandero R.S. e Polo GTS, até opções especiais de BMW, Mercedes e Porsche, conheça os modelos mais em conta de 10 marcas
 #politica #noticias #jornalismo https://t.co/svtnVl7juj</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:30:34 +0000 2021</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Caso de mais repercussão é o da falsa enfermeira de Apucarana, que foi presa acusada de desviar doses para vacinar mais de dez pessoas. Deputado que preside a comissão garante continuidade das investigações.
 #cbnlondrina #parana #saude #politica  https://t.co/6PjZKrZnu1</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:23:46 +0000 2021</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>“Beef, Bible and Bullets” retrata o Brasil de Bolsonaro aos estrangeiros
  #política #sergipe https://t.co/w5AkpZQEhU</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:21:27 +0000 2021</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>PMDF prende motorista armado no Guará 
 https://t.co/4ePmtyT6Ux
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:00:57 +0000 2021</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>#Política Os militares têm sido puxados para a política nos anos recentes pelo vácuo nascido da desmoralização e do desgaste das demais instituições nacionais, escreve Alon Feuerwerker na Bússola https://t.co/qp1472ysMJ</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:00:19 +0000 2021</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>#POLÍTICA | Fundão eleitoral de R$ 5,7 bilhões foi inflado sem emenda para não deixar rastro de congressistas - https://t.co/ztANNYUDLE https://t.co/kn8Qf3gZAO</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:00:11 +0000 2021</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>ADAMANTINA | Parlamentares foram recepcionados pelo prefeito Márcio Cardim, a vice-prefeita Maria de Lourdes Santos Gil, vereadores, autoridades e lideranças locais
 .
 #Adamantina #Política #Impacto https://t.co/URHkURzdJz</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:00:05 +0000 2021</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Como construir uma política de privacidade efetiva? https://t.co/93DV8Wtj9W #mtitecnologia #politica #provacidade https://t.co/m0CCtuxF2r</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Sat Jul 24 10:52:20 +0000 2021</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Bom dia! Esta é a capa da edição Nº 1128 do #JornalExtra de Alagoas desta semana.
 Saiba mais pelo https://t.co/gMZ5gzetQ4 (link no perfil) 📱💻🖥 #novoextra #jornalismo #informação #politica #justiça #impresso https://t.co/mwl59hmde3</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Sat Jul 24 10:34:20 +0000 2021</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Bom dia a todos. SD+
 #sabado #ni #rj #novaIguacu #mesquita #riodejaneiro #baixada #saude #politica https://t.co/X2nIo6hvyx</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Sat Jul 24 10:31:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Raio mata 16 pessoas que tiravam selfie na Índia: 
 https://t.co/YYyUF6Rvvs
 #politica #noticias #jornalismo https://t.co/YHCmXMXVwl</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Sat Jul 24 10:30:13 +0000 2021</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Raio mata 16 pessoas que tiravam selfie na Índia: 
 https://t.co/c346TW8FjK
 #politica #noticias #jornalismo https://t.co/7BpMziz2Am</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Sat Jul 24 10:21:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Um Eixo Monumental mais limpo e bem cuidado 
 https://t.co/I8Knzej00M
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Sat Jul 24 09:56:33 +0000 2021</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>#Política : Activista Luther King afirma que MPLA só vai valorizar os jovens em 2022 "Por outro lado,  a culpa também é da juventude"
 Confirma! https://t.co/4DeTveUqDa</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Sat Jul 24 08:21:13 +0000 2021</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Mulher presa 17 dias atrás como arma de fogo e presa novamente armada em Taguatinga 
 https://t.co/lrZU749HdB
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:23:56 +0000 2021</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Briga entre KondZilla e Brasil Paralelo escancara a guerra cultural sob Jair Bolsonaro #política #sergipe https://t.co/JFGnsfXDAA</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:21:26 +0000 2021</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Ministro usará viagem ao Japão para estreitar laços entre dois países 
 https://t.co/w8xx2IPNON
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:21:24 +0000 2021</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Ipea: exportações do agronegócio sobem 20,9% no 1º semestre 
 https://t.co/92RV9BEhWt
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:21:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Eric Takabatake perde para sul-coreano na segunda rodada do judô 
 https://t.co/Hu4Sy3tyy7
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:21:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Covid-19: gestantes e puérperas podem ser vacinadas em mutirão no DF 
 https://t.co/B3enkeJ2Lc
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:21:22 +0000 2021</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Olimpíada: Brasil passa pela Tunísia na estreia do vôlei masculino 
 https://t.co/cAfTtH73UF
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:21:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Entidade internacional doa 120 cestas básicas para instituições do DF 
 https://t.co/JjlqfKLsMr
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:21:20 +0000 2021</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Homem é preso por tráfico de drogas em Sobradinho 
 https://t.co/GKKdf47Gbt
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:21:20 +0000 2021</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Após roubo de veículo, PMDF prende dupla em Planaltina/GO 
 https://t.co/xfKaPoMN1D
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:21:19 +0000 2021</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>DF alcança recorde ao vacinar 76,9 mil pessoas no primeiro dia de mutirão 
 https://t.co/kXasYysGR1
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:21:18 +0000 2021</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Ministério alerta para site falso que coleta informações de servidores 
 https://t.co/bQP7GrJYHF
 #blogdacris #temporeal #politica #mundo #brasil #asquentes #cultura #noticia #ultimasnoticias #segurancapublica #saude #mulheres #policia #justica</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Sat Jul 24 06:18:41 +0000 2021</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Site omite que pesquisa com vantagem para Bolsonaro foi feita apenas em SC
  #política #sergipe https://t.co/oo6hVsuFZx</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Sat Jul 24 06:05:41 +0000 2021</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>@LucasEllerNYC + tempo dirá.
 No destaque, #JoeBiden, o #senhor da #guerra, #representante da #brutal #política do #imperialismo #norteamericano (Foto: Khalid Mohammed/AFP)
@@ -1412,84 +2689,154 @@
 Na íntegra: https://t.co/GMTyWStoMM</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Sat Jul 24 05:19:44 +0000 2021</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>FHC, Lula e Dilma defendem a ciência e criticam o governo Bolsonaro em vídeo
  #política #sergipe https://t.co/EjAj2sgSax</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Sat Jul 24 04:23:41 +0000 2021</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Bolsonarismo incentiva vi0lência* policial, afirma presidente da OAB sobre advogado agredido
  #política #sergipe https://t.co/ksMbNXFkXL</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>Sat Jul 24 04:20:48 +0000 2021</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>#Brasil #Política É uma república podre e o podre tem que ser explodido. E a CF foi rasgada não a liberdade de expressão pra criticar o poder podre #STF então a uma farsa de democracia.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Sat Jul 24 04:19:42 +0000 2021</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>#Brasil #Política Aquilo é o fim da picada um Presidente falar aquilo nem respeitar a dor das vítimas de suas famílias. Do outro lado tem uma gangue comunista. Se ficar assim nesse nível se não houver surpresas reviravoltas essa república acabará e é questão de tempo.</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Sat Jul 24 04:18:50 +0000 2021</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Bia Kicis
 Além de mentirosa é uma sem vergonha e cara de pau!
@@ -1497,101 +2844,185 @@
 #Politica #Nazista #ForaBolsonaro</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Sat Jul 24 04:18:06 +0000 2021</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>#Brasil #Política Temos um Presidente que em março quando moria muita gente, pessoas que não tinham oxigênio faltava vagas em hospitais e ele disse: "Vão ficar chorando até quando". E eu reagi e fui censurado e me tiraram do ar 10 horas.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Sat Jul 24 04:07:33 +0000 2021</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>@GuilhermeBoulos Esse sujeito só vê seus próprios intere$$es.
 Importante que uma grande parcela da população Brasileira desinteressada pela #Política e desinformada  pela #midia esta despertando para o... 👁️ 👁️ 👇🏼 
 #ForaBolsonaro e todos os seus #cúmplices já!</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Sat Jul 24 03:48:58 +0000 2021</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>#Política #Brasil #Governo 
 Hoje, as empresas que optam pelo regime de pagamento do lucro real podem deduzir o valor destinado aos benefícios de alimentação https://t.co/qpy9PFmtQg</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Sat Jul 24 03:47:12 +0000 2021</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>@teytulio + Infelizmente, repito, uma #parcela da #população desinteressada pela #Política, desinformada pela #midia e com #afinidades, colocou esse #sujeito e outros seus iguais, #cúmplices, no #Comando da #NaçãoBrasileira.</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Sat Jul 24 03:40:37 +0000 2021</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>#Brasil #Política #STF Política é pro Executivo e pro Legislativo. O judiciário tem que julgar e tem que ficar fora da política e não pode legislar.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Sat Jul 24 03:35:55 +0000 2021</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>#ancap #anarcocapiralismo #capitalismo #politica
 https://t.co/yUxQDh02AC
@@ -1599,314 +3030,580 @@
 Perguntem algo sobre política, liberdade e capitalismo</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Sat Jul 24 03:30:49 +0000 2021</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>A discussão entre parlamentarismo e presidencialismo na ordem do dia. No blog: "Parlamentarismo, de novo o debate" - https://t.co/87exfD6sJM #brasil #política #governo https://t.co/GUW4OP5OfA</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Sat Jul 24 03:18:47 +0000 2021</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>PP divide filiação ao Bolsonaro, mira ministros e teme impacto nas alianças do Nordeste em 2022
  #política #sergipe https://t.co/KVqkXFsVud</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Sat Jul 24 03:14:12 +0000 2021</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>Tudo é #Política de ontem, teve o até breve de Bernardo Mello Franco. 😉 Maria Cristina Fernandes está de volta nesta segunda.  
 https://t.co/CDsRAntGzg</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>Sat Jul 24 02:31:22 +0000 2021</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>#Política #Brasil #Governo #Bolsonaro 
 Presidente segue trabalhando para implantar voto impresso em 2022. Fala vai contra posicionamento do próprio Aécio
  https://t.co/nHB8VwhUtt</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Sat Jul 24 02:20:17 +0000 2021</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Sou contra total!!!
 #Politica #Brasil https://t.co/oG9FRQFQYz</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>Sat Jul 24 02:14:16 +0000 2021</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>#24J: mais de 400 cidades aderem aos atos Fora Bolsonaro deste sábado #política #sergipe https://t.co/7E8j6GDwnS</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>Sat Jul 24 02:13:14 +0000 2021</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>O diretor-executivo do Movimento Transparência Partidária, Marcelo Issa, afirma que o Congresso tenta emplacar um pacote de retrocessos na legislação política
 #Brasil #Política #Governo https://t.co/UIpT2h5xdn</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>Sat Jul 24 02:02:28 +0000 2021</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>#Brasil #Política #STF Alexandre, uma desobediência dos poderes.</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>Sat Jul 24 02:01:46 +0000 2021</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>#Brasil #Política #STF O STF supera o ridículo. É muito mais que ridículo a prisão do Deputado Daniel Silveira, é muito mais que ridículo um tribunal autorizar prisão em segunda instância e 3 anos depois proibir. Tem que ter uma rebelhão intensa contra a ditadura do sem-vergonha</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:53:26 +0000 2021</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>#Brasil #Política pode morrer muita gente destrói tudo. Materiais podres mais sedo ou mais tarde provocam problemas gravíssimos. O bem é maioria mas não tem articulação. O Brasil não irá pra um bom caminho com materiais podres.</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:51:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>#Brasil #Política É necessário uma boa organização para se ter uma alternativa séria. O povo não pode querer construir com materiais podres. Vejam o que ocorre se constrói um prédio com materiais podres. Em algum momento desaba</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:48:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>#Brasil #Política É inédito um preso político de um tribunal supremo que é o #STF . Nos países que a arbitrariedades presos políticos são de quem está no poder e não de um tribunal. O STF deveria ser uma vergonha internacional e seus Ministros párias.</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:36:38 +0000 2021</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>#Política #Brasil #Governo 
 Em 25 de fevereiro, o Ministério da Saúde fechou contrato de compra com a Precisa, que representava a Bharat, para compra de 20 milhões de doses da vacina https://t.co/1wtF5K6Rug</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:32:07 +0000 2021</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>#Brasil #Política #STF @LulaOficial Correção: Seletividade podre.</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:30:18 +0000 2021</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>#Brasil #Política #STF O PT, a falta de caráter de @LulaOficial seu apoio ao terrorismo gerou uma reação que é Bolsonaro. A "justiça" podre do STF terá uma reação. A canalhice do sem-vergonha Alexandre gerará reação.</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:26:48 +0000 2021</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>#Brasil #Política #STF Eu quero uma democracia que imundos do nível do constitucionalista podre tirano Alexandre não tenham espaço nas instituições e nem no direito e sejam odiados e não sejam tolerados.</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:23:46 +0000 2021</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>Em comemoração aos #15anosCompolítica, a professora Drª Alessandra Aldé (UERJ) enfatiza o nível de funcionamento da Associação, tanto nacional quanto internacional. Confira: https://t.co/cMCDgQeKK9
 #compolìtica #15anos #comunicação #política</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:22:55 +0000 2021</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>#Brasil #Política #STF O Brasil só será verdadeira democracia quando a gangue comunista e a extrema-esquerda não representarem mais riscos e quando a ditadura do tirano imundo Alexandre for destruída.</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:20:04 +0000 2021</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Lideranças políticas e empresariais rejeitam valor de outorga e limite de descontos para tarifas de pedágios na Serra.
 .
@@ -1915,254 +3612,464 @@
 #serraempauta #jornalismo #jornalismoindependente #empreendedorismo #politica #noticias #serragaucha https://t.co/QvFT20Z26A</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:19:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>#Brasil #Política A seletividade é podre e faz mal ao Brasil. Não aceito essa idéia que o problema é só Bolsonaro e que o resto é tudo normal.</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:17:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>#Brasil #Política Só reclamam de Bolsonaro. E eu deixo claro que a muitos motivos pra reclamar e tem que reclamar criticar. Mas reclamam só de Bolsonaro e não reclamam de Renan Aécio Lula do tirano do STF. Tem que reclamarem de tudo que tá errado.</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:13:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Vereador Renato Freitas é preso por protestar contra o Bolsonaro – Rede Brasil Atual
  #política #sergipe https://t.co/hCERz9CDiW</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:00:14 +0000 2021</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>#POLÍTICA | 🏛  'Quero um partido para chamar de meu', diz Bolsonaro, que cogita filiação ao PP, símbolo do Centrão https://t.co/gW874X3m3h https://t.co/gcXtS5VAzm</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:58:06 +0000 2021</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Bolsonaro admite que voto impresso não tem apoio para aprovação no Congresso https://t.co/CGVTVoPWeI #Brasil #POLITICA https://t.co/2y85gQICar</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:30:09 +0000 2021</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Jorge Quintino parte em busca de recursos para Agricultura Familiar de Caruaru https://t.co/KE02e6DsAK via @Acessa Caruaru
 #Politica</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:25:31 +0000 2021</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Monteiro: João Azevêdo assina ordem para implantação de restaurante popular e visita obras https://t.co/I5V6OKLF9W #F5Online #destaque2 #política #cariri #joaoazevedo #monteiro</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:24:35 +0000 2021</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Presidente também afirmou que pediu ao ministro da Saúde, Marcelo Queiroga, para pesquisar o uso de proxalutamida
 #Política #Brasil #Governo  https://t.co/l4joUkUtHx</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:21:00 +0000 2021</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Parlamentares observam que, apesar das dificuldades impostas pela pandemia de covid-19, os últimos meses foram bastante produtivos e de grande aprendizado para a Assembleia.
 #alego #Politica #COVID19 
 https://t.co/QuhXmjdPuZ</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:13:32 +0000 2021</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Se organizarmos direitinho, da pra fazer a troca dos cubanos que querem liberdade pelos brasileiros que querem o comunismo!!!
 #politica #o #democracia #tica #brasil #bolsonaro #covid #a #coronavirus #italia #n #noticias #economia #governo #argentina #eleicoes #news #liberalismo https://t.co/hMzxtTHztL</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:09:59 +0000 2021</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>#Política #Brasil #Governo #Lula 
 “O impeachment sem crime, a fraude eleitoral de 2018 e o semipresidencialismo são três atos da mesma peça de teatro. A vítima é a mesma: a soberania popular”, disse Lula
  https://t.co/fQrv7AxP8o</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:09:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Desde que tenha recursos garantidos, Centrão não abandona o barco de Bolsonaro
  #política #sergipe https://t.co/NskJ1JSnKM</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:08:09 +0000 2021</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>Se organizar bem direitinho da pra fazer a troca do povo de Cuba que quer liberdade pelo povo daqui que quer comunismo..🥱
 #Sextouuuu
 #Politica #Brasil</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:00:00 +0000 2021</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Niels Bohr, ganhador do Prêmio Nobel, já dizia que previsões são muito perigosas, principalmente a respeito do futuro. E ele era físico. Imagine se tivesse que fazer previsões econômicas, ou pior, políticas…
 #previsoes #economia #politica https://t.co/d8haN5RGyP</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:48:46 +0000 2021</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Só quem viveu sabe e quem viver verá!😉
 .
@@ -2172,189 +4079,343 @@
 #politica #Amizade #boapolitica em Casa Guaxinim Mossoró https://t.co/73SB4ii4IR</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:40:10 +0000 2021</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Parabéns a #oposição pela medida acertada, #corajosa e celere, de invocar o #judiciário para evitar e frear qualquer tentativa de #golpe #politica #eleicoes2022 #ditaduranuncamais</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:25:10 +0000 2021</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>#DanielLopez #Política #Economia
 Acabou a palhaçada.
 https://t.co/DDGR15LY7j</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:13:53 +0000 2021</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>É falso que o áudio mostre Luana Piovani defendendo Jair Bolsonaro
  #política #sergipe https://t.co/fHOQPTqtFF</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:13:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>ElPelucaMilei:Las facetas de Milei #Milei #Argentina #Arg #Politica #Parati https://t.co/jxG7tF6pLv https://t.co/aJaz0ZGrJ7</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:59:42 +0000 2021</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>#Política #Brasil #Governo 
 Joice disse que foi agredida no último fim de semana. “A Peppa já fez exame de porco delito?”, escreveu a advogada https://t.co/qMhsY0hWyL</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:47:46 +0000 2021</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>BAHIA SE APROXIMA DE 25.500 MORTES PELA COVID E ATIVOS HOJE SÃO 9.301 #Política https://t.co/v5NncYRzKz</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:45:29 +0000 2021</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>#Política #Brasil #Governo 
 Bolsonaro afirmou que ainda está em busca de um partido que “possa chamar de seu” e no qual ele tenha o domínio https://t.co/DJVWXEeiri</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:42:22 +0000 2021</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Anota aí na agenda!
 Amanhã dia 24/07 as 19 horas uma super live com as  Presidentes e vices do Movimento vai ter mulher sim !
 #Vaitermulhersim #elasnopoder #politica #mulheresnapolitica #Vaiterlivesim https://t.co/DjOtBaECFx</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:42:13 +0000 2021</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Amoêdo crítica deputados do NOVO contrários a abertura de um processo de impeachment.
 #amoedo #NOVO #deputados #impeachment #processo #faroldabahia #politica 
 https://t.co/Un0Fl0dHSB</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:41:08 +0000 2021</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Almoço com Alckmin reúne dezenas de prefeitos em Nhandeara 
 Leia a matéria completa em https://t.co/xnW4YHw5UQ
 #portallr1 #nhandeara  #politica</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:26:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Sobre o comentário do coiso...
 .
@@ -2364,18 +4425,32 @@
 #ForaBolsonaroGenocida #Politica #Charge #Brazil #2022elections #slapp https://t.co/xBXLLgK2me</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:25:38 +0000 2021</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>#repost @galeriaangeli
 ・・・
@@ -2386,34 +4461,62 @@
 #angeli #charge #politica #olimpiadas #hq #politicalcartoon https://t.co/7osIXrmUR8</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:20:30 +0000 2021</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Rui Rio acusa o PS e PCP de “descaramento” ao alterarem lei que protege autarcas https://t.co/R7BWuBrFkI #PCP #Política #PS</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:19:53 +0000 2021</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Uma charge clássica p uma sexta olímpica. 🔥🤘
 .
@@ -2422,271 +4525,21 @@
 #angeli #charge #politica #olimpiadas #hq #politicalcartoon https://t.co/c4WUwzevAt</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 22:15:01 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>DEPUTADA DESMENTE VERSÃO DE QUE TERIA SOFRIDO UMA SURRA DO MARIDO #Política https://t.co/bT91qr9i71</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 22:08:58 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Atos contra o Bolsonaro neste sábado testam a força das ruas após uma sequência de três manifestações
- #política #sergipe https://t.co/WZ37yPtP99</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:56:00 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>https://t.co/7lVcZ95EzD Derrotou tucanos #Eleições2022 #Política #NovaOdessa</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:52:30 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>#Brasil #Política Existem pessoas nesse país que se indignam com o errado que querem que o bem triunfe que querem um país sério.  Em Brasília existe o mal, mas infelizmente nos protagonistas que predominam dos dois lados não existe o lado do bem.</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:46:20 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Ciro Gomes classifica mensagem macabra de Ato Institucional BolsoBraga https://t.co/G4vAOJ3LKn #politica</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:26:37 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>CENTRÃO NA ESPLANADA. Na semana, Ciro Nogueira foi convidado a integrar a Casa Civil, criando possibilidades para 2022. Confira nossa análise na carta dessa semana! https://t.co/FOgHPMGEhB #política #mercados https://t.co/B270OqjrGh</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:22:53 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Bittencourt: se reajustar servidores pode não sobrar espaço ao Bolsa Família https://t.co/FC64UWTPya 
-#bittencourt #teto #gastos #economia #politica #bolsafamilia #mercadonews #mercadonewsoficial</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:19:53 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>#Brasil #Política #STF #STFVergonhaNacional #DireitoConstitucional gigantesca e algo muito cruel. Odeio muito esse STF de esgoto!! Tribunal que prende quem se expressa tem que ser colocado abaixo a pau!!</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:17:17 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>#Brasil #Política #STF #STFVergonhaNacional #DireitoConstitucional Um tribunal que solta corruptos marginais de altíssima periculosidade e prende quem se expressa criticando esse poder podre, rasga a CF tem um tirano que faz o que da na sua cabeça pedra é pouco e merece uma fúria</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:12:11 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Deputada surge "destruída"; acordou numa poça de sangue. @joicehasselmann #msnoticais #Politica #UltimasNoticias #atentado https://t.co/NOk8nsxoGv</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:09:16 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Opinião – Luís Francisco Carvalho Filho: O país do Bolsonaro
- #política #sergipe https://t.co/lRc4aD1C0R</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:07:29 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Pessoas comemorando a agressão contra a Joice Hasselmann mostram o lado podre da #política</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:05:41 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Governo veta projeto sobre repasses ao terceiro setor na pandemia.
-#governo #projeto #repasses #pandemia #faroldabahia #politica
-https://t.co/JkNEs22Zj4</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 20:54:06 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Deputado federal Felício Laterça mostra em Niterói resultados do mandato https://t.co/iJWKMdREhP #Politica #Niteroi #RJ</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 20:48:03 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Prefeitura responde questionamentos sobre nova sede do Corpo de Bombeiros - Vereador Rafael de Angeli buscava mais informações, principalmente por conta dos alagamentos que ocorrem na região: https://t.co/W8MkMDzftx #Vereador #RafaeldeAngeli #Araraquara #Politica #VereadorRafael</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 20:38:16 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>ELEIÇÕES 2022 
-Jair Bolsonaro: O Partido Progressista passa a ser uma possibilidade de filiação. 
-https://t.co/ERW5nKGk00 
-#Política #PNBonline</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2694,16 +4547,29 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Fri Jul 23 20:38:02 +0000 2021</t>
+          <t>Fri Jul 23 22:15:01 +0000 2021</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>"Ser gay que ataca a classe trabalhadora não é avanço, falhamos", afirmou a professora  Dimitra Vulcana nas redes sociais. #politica #sexualidade 
-https://t.co/61HPURap5I</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>DEPUTADA DESMENTE VERSÃO DE QUE TERIA SOFRIDO UMA SURRA DO MARIDO #Política https://t.co/bT91qr9i71</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -2711,16 +4577,30 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Fri Jul 23 20:37:59 +0000 2021</t>
+          <t>Fri Jul 23 22:08:58 +0000 2021</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>"Ser gay que ataca a classe trabalhadora não é avanço, falhamos", afirmou a professora  Dimitra Vulcana nas redes sociais. #politica #sexualidade 
-https://t.co/HB9VYq00gO</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>Atos contra o Bolsonaro neste sábado testam a força das ruas após uma sequência de três manifestações
+ #política #sergipe https://t.co/WZ37yPtP99</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -2728,21 +4608,29 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Fri Jul 23 20:30:18 +0000 2021</t>
+          <t>Fri Jul 23 21:56:00 +0000 2021</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>@TerraBrasilnot 🇧🇷 #Brasil #Politica #EsquerdaCriminosa #PT: Justiça com suas normas que vez e outra permite aberrações nessa categoria.
-Ex.
-✓Ex-presidiário para Presidente
-✓Senador acusado de Pedófila
-✓S. Corte que persegue Cidadão
-✓Ver. presidiário
-✓"Ditadura das minorias": 🤦‍♂️ camisa 24 https://t.co/yw1GxAMIhE</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>https://t.co/7lVcZ95EzD Derrotou tucanos #Eleições2022 #Política #NovaOdessa</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -2750,16 +4638,29 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fri Jul 23 20:21:57 +0000 2021</t>
+          <t>Fri Jul 23 21:52:30 +0000 2021</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>#Política #Brasil #Governo 
-“Eu sou do Centrão. Eu fui do PP, do PTB, do então PFL, no passado integrei siglas que foram extintas” disse https://t.co/83dLGkYkQS</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>#Brasil #Política Existem pessoas nesse país que se indignam com o errado que querem que o bem triunfe que querem um país sério.  Em Brasília existe o mal, mas infelizmente nos protagonistas que predominam dos dois lados não existe o lado do bem.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -2767,15 +4668,29 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fri Jul 23 20:12:37 +0000 2021</t>
+          <t>Fri Jul 23 21:46:20 +0000 2021</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>O bebê de Rosemary e os bastidores da #política https://t.co/FzB8E3X53r #cinema #filmes #sobrepolítica</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>Ciro Gomes classifica mensagem macabra de Ato Institucional BolsoBraga https://t.co/G4vAOJ3LKn #politica</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -2783,17 +4698,29 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Fri Jul 23 20:11:12 +0000 2021</t>
+          <t>Fri Jul 23 21:26:37 +0000 2021</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>A Clínica de Repouso Psiquiátrico Santa Lúcia, que fica em Mury, em Nova Friburgo, na Região Serrana do Rio, continua enfrentando problemas mesmo depois da publicação do decreto municipal de intervenção nos serviços prestados.
-Entenda: https://t.co/2fSiHh8Ik0 🌐
-#Politica</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>CENTRÃO NA ESPLANADA. Na semana, Ciro Nogueira foi convidado a integrar a Casa Civil, criando possibilidades para 2022. Confira nossa análise na carta dessa semana! https://t.co/FOgHPMGEhB #política #mercados https://t.co/B270OqjrGh</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -2801,16 +4728,30 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Fri Jul 23 20:09:48 +0000 2021</t>
+          <t>Fri Jul 23 21:22:53 +0000 2021</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>#POLÍTICA ➡ “O Gil não tem a menor chance de ser o candidato apoiado por mim em 2024, e ele sabe disso”, diz Furlan
-👉 Saiba mais em https://t.co/d3HM5F1Mhe⠀ https://t.co/gy1vKjNcGM</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>Bittencourt: se reajustar servidores pode não sobrar espaço ao Bolsa Família https://t.co/FC64UWTPya 
+#bittencourt #teto #gastos #economia #politica #bolsafamilia #mercadonews #mercadonewsoficial</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -2818,16 +4759,29 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Fri Jul 23 20:08:56 +0000 2021</t>
+          <t>Fri Jul 23 21:19:53 +0000 2021</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Promotor abre inquérito para investigar alegações de suborno para vacinas na administração de Bolsonaro
- #política #sergipe https://t.co/Qi01O7HOaL</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>#Brasil #Política #STF #STFVergonhaNacional #DireitoConstitucional gigantesca e algo muito cruel. Odeio muito esse STF de esgoto!! Tribunal que prende quem se expressa tem que ser colocado abaixo a pau!!</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -2835,17 +4789,29 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Fri Jul 23 20:07:36 +0000 2021</t>
+          <t>Fri Jul 23 21:17:17 +0000 2021</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>O Que Você Acha do Presidente Jair Bolsonaro?
-#Presidente #GloboLixo #DitaduraNuncaMais #DistritoFederal #Genocide #humor #OpiniaonoAr #GloboNews #Politica 
-@felipeneto @jairbolsonaro @CarlosBolsonaro @BolsonaroSP</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>#Brasil #Política #STF #STFVergonhaNacional #DireitoConstitucional Um tribunal que solta corruptos marginais de altíssima periculosidade e prende quem se expressa criticando esse poder podre, rasga a CF tem um tirano que faz o que da na sua cabeça pedra é pouco e merece uma fúria</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
